--- a/references/DP203-Exam-Content-Matrix.xlsx
+++ b/references/DP203-Exam-Content-Matrix.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Personal)\Solliance\microsoft-data-engineering-ilt\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur.sharepoint.com/teams/WWLDataEngineeringPGInteractions-Kaicto/Shared Documents/Kaicto/DP-203 Content design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF2AA84-C03D-4E4F-99B6-FABD44510CD0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="613" documentId="8_{47559127-B66F-4983-821D-678CD9F4004A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{02E62EB1-26AB-46C0-9FB3-394E998E16BD}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{80F02EE9-6FBC-436B-BF3E-75FECE294ED8}"/>
+    <workbookView xWindow="-23964" yWindow="4140" windowWidth="16440" windowHeight="10560" activeTab="1" xr2:uid="{80F02EE9-6FBC-436B-BF3E-75FECE294ED8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Exam OD key" sheetId="1" r:id="rId1"/>
+    <sheet name="Lab to module mapping" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="206">
-  <si>
-    <t>cto assessment</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="211">
   <si>
     <t>Azure Synapse Analytics</t>
   </si>
@@ -3713,143 +3711,161 @@
     </r>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Row 2</t>
-  </si>
-  <si>
-    <t>Row 3</t>
-  </si>
-  <si>
-    <t>Row 4</t>
-  </si>
-  <si>
-    <t>Row 5</t>
-  </si>
-  <si>
-    <t>Row 6</t>
-  </si>
-  <si>
-    <t>Row 4 and 6</t>
-  </si>
-  <si>
-    <t>Row 7</t>
-  </si>
-  <si>
-    <t>Kai row 1</t>
-  </si>
-  <si>
-    <t>Kai row 1 and2</t>
-  </si>
-  <si>
-    <t>Kai row 2</t>
-  </si>
-  <si>
-    <t>Row 2 ???</t>
-  </si>
-  <si>
-    <t>Kai row 3</t>
-  </si>
-  <si>
-    <t>Row 3 ?????</t>
-  </si>
-  <si>
-    <t>ka</t>
-  </si>
-  <si>
-    <t>kai row 4</t>
-  </si>
-  <si>
-    <t>kai row 5</t>
-  </si>
-  <si>
-    <t>Kai row 1 and 5</t>
-  </si>
-  <si>
-    <t>Kai row 6</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Original row #</t>
-  </si>
-  <si>
-    <t>New row #</t>
-  </si>
-  <si>
-    <t>Designing and Implementing Data Storage</t>
-  </si>
-  <si>
-    <t>Designing and Implementing the Serving Layer</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Moved PolyBase and COPY data loading exercise from module 3 into this module</t>
-  </si>
-  <si>
-    <t>Exploring, Transforming, and Loading Data into the Data Warehouse using Apache Spark</t>
-  </si>
-  <si>
-    <t>Removed the portion of the lab where we explore and fix mal-formatted CSVs with Synapse Spark</t>
-  </si>
-  <si>
-    <t>Data Exploration and Transformation in Azure Databricks</t>
-  </si>
-  <si>
-    <t>Ingesting and Loading Data into the Data Warehouse</t>
-  </si>
-  <si>
-    <t>Integrate and Transform Data with Synapse Pipelines</t>
-  </si>
-  <si>
-    <t>Split the previous module 3 into two separate modules</t>
-  </si>
-  <si>
-    <t>Running interactive queries using serverless SQL pool with Azure Synapse Analytics</t>
-  </si>
-  <si>
-    <t>Analyzing and Optimizing Data Warehouse Storage</t>
-  </si>
-  <si>
-    <t>Analyze Data and Optimize Query Performance with Dedicated SQL Pools in Azure Synapse</t>
-  </si>
-  <si>
-    <t>Split the previous module 5 into two separate modules</t>
-  </si>
-  <si>
-    <t>End-to-end security with Azure Synapse Analytics</t>
-  </si>
-  <si>
-    <t>Real-time Stream Processing with Stream Analytics</t>
-  </si>
-  <si>
-    <t>Creating a Stream Processing Solution with Event Hubs and Azure Databricks</t>
-  </si>
-  <si>
-    <t>Optimize and Visualize Data in the Data Warehouse</t>
-  </si>
-  <si>
-    <t>Delivering the modern data warehouse with Azure Synapse Analytics, Azure Databricks, and Azure Data Factory</t>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Module mapping</t>
+  </si>
+  <si>
+    <t>Exam OD</t>
+  </si>
+  <si>
+    <t>Perform Data Exploration in Synapse Studio</t>
+  </si>
+  <si>
+    <t>Ingesting data with Spark notebooks in Azure Synapse Analytics</t>
+  </si>
+  <si>
+    <t>Transforming data with DataFrames in Spark pools in Azure Synapse Analytics</t>
+  </si>
+  <si>
+    <t>Integrating SQL and Spark pools in Azure Synapse Analytics</t>
+  </si>
+  <si>
+    <t>Import sales data with PolyBase and COPY using T-SQL</t>
+  </si>
+  <si>
+    <t>Petabyte-scale ingestion with Azure Synapse Pipelines</t>
+  </si>
+  <si>
+    <t>Code-free transformation at scale with Azure Synapse Pipelines</t>
+  </si>
+  <si>
+    <t>Orchestrate data movement and transformation in Azure Synapse Pipelines</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>Bullet point</t>
+  </si>
+  <si>
+    <t>Querying a Data Lake Store using serverless SQL pools in Azure Synapse Analytics</t>
+  </si>
+  <si>
+    <t>Securing access to data through using a serverless SQL pool in Azure Synapse Analytics</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>Using data loading best practices in Azure Synapse Analytics</t>
+  </si>
+  <si>
+    <t>Understanding developer features of Azure Synapse Analytics</t>
+  </si>
+  <si>
+    <t>Optimize data warehouse query performance in Azure Synapse Analytics</t>
+  </si>
+  <si>
+    <t>Improve query performance</t>
+  </si>
+  <si>
+    <t>Check for skewed data and space usage</t>
+  </si>
+  <si>
+    <t>Understand column store storage details</t>
+  </si>
+  <si>
+    <t>Study the impact of wrong choices for column data types</t>
+  </si>
+  <si>
+    <t>Study the impact of materialized views</t>
+  </si>
+  <si>
+    <t>Avoid extensive logging</t>
+  </si>
+  <si>
+    <t>Secure Azure Synapse Analytics workspace data</t>
+  </si>
+  <si>
+    <t>Secure the Azure Synapse Analytics workspace and managed services</t>
+  </si>
+  <si>
+    <t>Secure Azure Synapse Analytics supporting infrastructure</t>
+  </si>
+  <si>
+    <t>Power BI and Synapse workspace integration</t>
+  </si>
+  <si>
+    <t>Optimizing integration with Power BI</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualize data with SQL serverless </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Lab-02</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>04-work-with-dataframes-in-azure-databricks</t>
+  </si>
+  <si>
+    <t>all content</t>
+  </si>
+  <si>
+    <t>07-work-with-dataframe-advanced-methods-in-azure-databricks</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
+    <t>10-process-streaming-data-with-azure-databricks-structured-streaming</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>No HTAP content in the design…  Why did we leave HTAP out of the content design???</t>
+  </si>
+  <si>
+    <t>Add Machine Learning for an added extra… upsell to Data Science</t>
+  </si>
+  <si>
+    <t>Exercise 2 - Load and enrich data with Spark - Ask Joel about the intention about this</t>
+  </si>
+  <si>
+    <t>data-exp6</t>
+  </si>
+  <si>
+    <t>How do we deal with Modules 1 -  4</t>
+  </si>
+  <si>
+    <t>What about Stream Analytics content?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3898,34 +3914,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="7" tint="-0.249977111117893"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3935,24 +3931,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3969,7 +3947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3988,22 +3966,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4318,1688 +4287,1432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB9A01F-059A-4576-B04F-A529B7500F23}">
-  <dimension ref="A1:K172"/>
+  <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.234375" customWidth="1"/>
-    <col min="3" max="3" width="20.52734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.52734375" customWidth="1"/>
-    <col min="5" max="5" width="18.17578125" customWidth="1"/>
-    <col min="6" max="6" width="18.3515625" customWidth="1"/>
-    <col min="7" max="7" width="19.703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.3515625" customWidth="1"/>
+    <col min="1" max="1" width="67.69140625" customWidth="1"/>
+    <col min="2" max="2" width="20.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53515625" customWidth="1"/>
+    <col min="4" max="4" width="18.15234375" customWidth="1"/>
+    <col min="5" max="5" width="18.3828125" customWidth="1"/>
+    <col min="6" max="6" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>183</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.6">
-      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.6">
-      <c r="A5">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.6">
-      <c r="A6">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.6">
-      <c r="A7">
+    </row>
+    <row r="2" spans="1:7" ht="17.600000000000001" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.6">
-      <c r="A8">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.6">
-      <c r="A9">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.6">
-      <c r="A10">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.6">
-      <c r="A11">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.6">
-      <c r="A12">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.6">
-      <c r="A13">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.6">
-      <c r="A14">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.6">
-      <c r="A15">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="17.350000000000001" x14ac:dyDescent="0.5">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A18" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A21" s="9"/>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A24" s="9"/>
-      <c r="B24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A27" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" t="s">
-        <v>174</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="8"/>
-      <c r="B30" s="3" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" t="s">
-        <v>174</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="8"/>
-      <c r="B31" s="3" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A32" s="8"/>
-      <c r="B32" s="3" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A33" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A34" s="11"/>
-      <c r="B34" s="3" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A35" s="11"/>
-      <c r="B35" s="3" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A36" s="11"/>
-      <c r="B36" s="3" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A37" s="11"/>
-      <c r="B37" s="3" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A38" s="11"/>
-      <c r="B38" s="3" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A39" s="9"/>
-      <c r="B39" s="3" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A40" s="11"/>
-      <c r="B40" s="3" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A41" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="2" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A42" s="9"/>
-      <c r="B42" s="3" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A43" s="9"/>
-      <c r="B43" s="3" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A44" s="10"/>
-      <c r="B44" s="3" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A45" s="10"/>
-      <c r="B45" s="3" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A46" s="9"/>
-      <c r="B46" s="3" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A47" s="9"/>
-      <c r="B47" s="3" t="s">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A48" s="11"/>
-      <c r="B48" s="3" t="s">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A49" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B49" s="2" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A50" s="11"/>
-      <c r="B50" s="3" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A51" s="11"/>
-      <c r="B51" s="3" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A52" s="9"/>
-      <c r="B52" s="3" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A53" s="10"/>
-      <c r="B53" s="3" t="s">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A54" s="9"/>
-      <c r="B54" s="3" t="s">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A55" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B55" s="2" t="s">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A56" s="8"/>
-      <c r="B56" s="3" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E56" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A57" s="9"/>
-      <c r="B57" s="3" t="s">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A58" s="11"/>
-      <c r="B58" s="3" t="s">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E58" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A59" s="11"/>
-      <c r="B59" s="3" t="s">
+    </row>
+    <row r="45" spans="1:7" ht="17.600000000000001" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="17.350000000000001" x14ac:dyDescent="0.5">
-      <c r="A60" s="8"/>
-      <c r="B60" s="1" t="s">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A61" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B61" s="2" t="s">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A62" s="11"/>
-      <c r="B62" s="3" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C62" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A63" s="9"/>
-      <c r="B63" s="3" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A64" s="8"/>
-      <c r="B64" s="3" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A65" s="8"/>
-      <c r="B65" s="3" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A66" s="8"/>
-      <c r="B66" s="3" t="s">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G66" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A67" s="10"/>
-      <c r="B67" s="3" t="s">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C67" t="s">
-        <v>172</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A68" s="10"/>
-      <c r="B68" s="3" t="s">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E68" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A69" s="11"/>
-      <c r="B69" s="3" t="s">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C69" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A70" s="10"/>
-      <c r="B70" s="3" t="s">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E70" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A71" s="8"/>
-      <c r="B71" s="3" t="s">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A72" s="10"/>
-      <c r="B72" s="3" t="s">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E72" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A73" s="11"/>
-      <c r="B73" s="3" t="s">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C73" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A74" s="8"/>
-      <c r="B74" s="3" t="s">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A75" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B75" s="2" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A76" s="10"/>
-      <c r="B76" s="3" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C76" t="s">
-        <v>173</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A77" s="10"/>
-      <c r="B77" s="3" t="s">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C77" t="s">
-        <v>172</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A78" s="10"/>
-      <c r="B78" s="3" t="s">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F78" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A79" s="11"/>
-      <c r="B79" s="3" t="s">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A80" s="8"/>
-      <c r="B80" s="3" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A81" s="11"/>
-      <c r="B81" s="3" t="s">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C81" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A82" s="11"/>
-      <c r="B82" s="3" t="s">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C82" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A83" s="11"/>
-      <c r="B83" s="3" t="s">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A84" s="11"/>
-      <c r="B84" s="3" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C84" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A85" s="10"/>
-      <c r="B85" s="3" t="s">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C85" t="s">
-        <v>178</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A86" s="10"/>
-      <c r="B86" s="3" t="s">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F86" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A87" s="10"/>
-      <c r="B87" s="3" t="s">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F87" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A88" s="11"/>
-      <c r="B88" s="3" t="s">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A89" s="8"/>
-      <c r="B89" s="3" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F89" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A90" s="8"/>
-      <c r="B90" s="3" t="s">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E90" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A91" s="8"/>
-      <c r="B91" s="3" t="s">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C91" t="s">
-        <v>174</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A92" s="10"/>
-      <c r="B92" s="3" t="s">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E92" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A93" s="11"/>
-      <c r="B93" s="3" t="s">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A94" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B94" s="2" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A95" s="8"/>
-      <c r="B95" s="3" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G95" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H95" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A96" s="11"/>
-      <c r="B96" s="3" t="s">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A97" s="11"/>
-      <c r="B97" s="3" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A98" s="8"/>
-      <c r="B98" s="3" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G98" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A99" s="8"/>
-      <c r="B99" s="3" t="s">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G99" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A100" s="8"/>
-      <c r="B100" s="3" t="s">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C100" t="s">
-        <v>174</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A101" s="8"/>
-      <c r="B101" s="3" t="s">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C101" t="s">
-        <v>174</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A102" s="8"/>
-      <c r="B102" s="3" t="s">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H102" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A103" s="10"/>
-      <c r="B103" s="3" t="s">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F103" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A104" s="8"/>
-      <c r="B104" s="3" t="s">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C104" t="s">
-        <v>179</v>
-      </c>
-      <c r="H104" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A105" s="11"/>
-      <c r="B105" s="3" t="s">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A106" s="11"/>
-      <c r="B106" s="3" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C106" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A107" s="10"/>
-      <c r="B107" s="3" t="s">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G107" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A108" s="10"/>
-      <c r="B108" s="3" t="s">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G108" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A109" s="11"/>
-      <c r="B109" s="3" t="s">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A110" s="10"/>
-      <c r="B110" s="3" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F110" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G110" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A111" s="8"/>
-      <c r="B111" s="3" t="s">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A97" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G111" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A112" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B112" s="2" t="s">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A98" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A113" s="8"/>
-      <c r="B113" s="3" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A99" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E113" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F113" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A114" s="8"/>
-      <c r="B114" s="3" t="s">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A100" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E114" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A115" s="8"/>
-      <c r="B115" s="3" t="s">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A101" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E115" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A116" s="8"/>
-      <c r="B116" s="3" t="s">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A102" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E116" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F116" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A117" s="8"/>
-      <c r="B117" s="3" t="s">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E117" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A118" s="10"/>
-      <c r="B118" s="3" t="s">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A104" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E118" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A119" s="10"/>
-      <c r="B119" s="3" t="s">
+    </row>
+    <row r="105" spans="1:7" ht="17.600000000000001" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E119" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="17.350000000000001" x14ac:dyDescent="0.5">
-      <c r="A120" s="8"/>
-      <c r="B120" s="1" t="s">
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A106" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A121" s="10"/>
-      <c r="B121" s="2" t="s">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A107" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A122" s="10"/>
-      <c r="B122" s="3" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A108" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C122" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A123" s="10"/>
-      <c r="B123" s="3" t="s">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A109" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C123" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A124" s="8"/>
-      <c r="B124" s="3" t="s">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A110" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C124" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A125" s="8"/>
-      <c r="B125" s="3" t="s">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A111" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C125" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A126" s="10"/>
-      <c r="B126" s="3" t="s">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A112" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F126" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A127" s="10"/>
-      <c r="B127" s="3" t="s">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A113" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F127" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A128" s="8"/>
-      <c r="B128" s="3" t="s">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A114" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C128" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A129" s="8"/>
-      <c r="B129" s="3" t="s">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A115" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C129" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A130" s="8"/>
-      <c r="B130" s="2" t="s">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A116" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A131" s="8"/>
-      <c r="B131" s="3" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A117" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C131" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A132" s="10"/>
-      <c r="B132" s="3" t="s">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A118" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C132" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A133" s="8"/>
-      <c r="B133" s="3" t="s">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A119" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C133" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A134" s="8"/>
-      <c r="B134" s="3" t="s">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A120" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C134" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A135" s="8"/>
-      <c r="B135" s="3" t="s">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A121" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C135" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A136" s="10"/>
-      <c r="B136" s="3" t="s">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A122" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F136" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A137" s="11"/>
-      <c r="B137" s="3" t="s">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A123" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A138" s="8"/>
-      <c r="B138" s="3" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A124" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C138" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A139" s="11"/>
-      <c r="B139" s="3" t="s">
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A125" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C139" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A140" s="11"/>
-      <c r="B140" s="3" t="s">
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A126" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A141" s="11"/>
-      <c r="B141" s="3" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A127" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C141" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A142" s="10"/>
-      <c r="B142" s="3" t="s">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A128" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C142" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A143" s="8"/>
-      <c r="B143" s="3" t="s">
+    </row>
+    <row r="129" spans="1:7" ht="17.600000000000001" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C143" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="17.350000000000001" x14ac:dyDescent="0.5">
-      <c r="A144" s="8"/>
-      <c r="B144" s="1" t="s">
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A130" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A145" s="8"/>
-      <c r="B145" s="4" t="s">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A131" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A146" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B146" s="2" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A132" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A147" s="10"/>
-      <c r="B147" s="3" t="s">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A133" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F147" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A148" s="11"/>
-      <c r="B148" s="3" t="s">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A134" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A149" s="8"/>
-      <c r="B149" s="3" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A135" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C149" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A150" s="8"/>
-      <c r="B150" s="3" t="s">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A136" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C150" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A151" s="8"/>
-      <c r="B151" s="3" t="s">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A137" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E151" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A152" s="8"/>
-      <c r="B152" s="3" t="s">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A138" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C152" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A153" s="11"/>
-      <c r="B153" s="3" t="s">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A139" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A154" s="10"/>
-      <c r="B154" s="3" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A140" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E154" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A155" s="8"/>
-      <c r="B155" s="3" t="s">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A141" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E155" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A156" s="10"/>
-      <c r="B156" s="3" t="s">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A142" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F156" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A157" s="11"/>
-      <c r="B157" s="3" t="s">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A143" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A158" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B158" s="2" t="s">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A144" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A159" s="8"/>
-      <c r="B159" s="3" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A145" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F159" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A160" s="11"/>
-      <c r="B160" s="3" t="s">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A146" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A161" s="8"/>
-      <c r="B161" s="3" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A147" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C161" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A162" s="11"/>
-      <c r="B162" s="3" t="s">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A148" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A163" s="11"/>
-      <c r="B163" s="3" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A149" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A164" s="11"/>
-      <c r="B164" s="3" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A150" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A165" s="8"/>
-      <c r="B165" s="3" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A151" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C165" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F165" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A166" s="8"/>
-      <c r="B166" s="3" t="s">
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A152" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C166" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F166" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A167" s="8"/>
-      <c r="B167" s="3" t="s">
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A153" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C167" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A168" s="10"/>
-      <c r="B168" s="3" t="s">
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A154" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E168" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A169" s="10"/>
-      <c r="B169" s="3" t="s">
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A155" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E169" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A170" s="11"/>
-      <c r="B170" s="3" t="s">
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A156" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A171" s="11"/>
-      <c r="B171" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B172" s="5"/>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A157" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705C9A3A-65B6-43A5-919F-987B3CA2A787}">
+  <dimension ref="A2:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="72.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4609375" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="9">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="9">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="9">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="9">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="9">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="9">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="9">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="9">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="9">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="9">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="9">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="9">
+        <v>11</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="9">
+        <v>12</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="9">
+        <v>12</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="9">
+        <v>12</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="9">
+        <v>12</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <v>2</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="9">
+        <v>12</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="8">
+        <v>2</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="9">
+        <v>13</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="8">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="9">
+        <v>13</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="8">
+        <v>2</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="9">
+        <v>13</v>
+      </c>
+      <c r="E24" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="8">
+        <v>2</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="9">
+        <v>16</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="8">
+        <v>2</v>
+      </c>
+      <c r="B26" s="8">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="9">
+        <v>16</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="8">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="9">
+        <v>16</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="9">
+        <v>7</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="9">
+        <v>7</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="9">
+        <v>15</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="9">
+        <v>6</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="9">
+        <v>17</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C26" r:id="rId1" location="exercise-2-optimizing-integration-with-power-bi" tooltip="#exercise-2-optimizing-integration-with-power-bi" display="vscode-webview-resource://37e0de1c-14c8-43e1-95ae-c1646e6eec12/file/c%3A/Development/Github/ctesta-oneillmsft/microsoft-data-engineering-ilt/labs/day2/lab4/README.md - exercise-2-optimizing-integration-with-power-bi" xr:uid="{030F4020-F209-46BA-ABFE-09AEC339E1AA}"/>
+    <hyperlink ref="C27" r:id="rId2" location="exercise-2-optimizing-integration-with-power-bi" tooltip="#exercise-2-optimizing-integration-with-power-bi" display="vscode-webview-resource://37e0de1c-14c8-43e1-95ae-c1646e6eec12/file/c%3A/Development/Github/ctesta-oneillmsft/microsoft-data-engineering-ilt/labs/day2/lab4/README.md - exercise-2-optimizing-integration-with-power-bi" xr:uid="{4A3472AD-744A-4E90-B93F-7C0879BB184F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6010,17 +5723,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CDC73491511A8342BC98E2299AB119ED" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4629a2ac5b53076fea83e013c5696949">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4ddd06f-7f70-4b19-827a-3880af42de1a" xmlns:ns3="c6c03bc4-bf8d-4977-a83e-3b02ad50fcf0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e58e2c35f6c738719bf58bba660d2018" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CDC73491511A8342BC98E2299AB119ED" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5a6043cee513491a8c98e5e500d8e165">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c4ddd06f-7f70-4b19-827a-3880af42de1a" xmlns:ns3="c6c03bc4-bf8d-4977-a83e-3b02ad50fcf0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1fa54d92180ef2bc4237823dbde66fdd" ns2:_="" ns3:_="">
     <xsd:import namespace="c4ddd06f-7f70-4b19-827a-3880af42de1a"/>
     <xsd:import namespace="c6c03bc4-bf8d-4977-a83e-3b02ad50fcf0"/>
     <xsd:element name="properties">
@@ -6035,6 +5739,11 @@
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6065,6 +5774,33 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="15" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -6197,33 +5933,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5BE96D0-4540-4AA1-965F-F02E5415E19A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8507EF3C-5C84-452F-9701-3FFFA75B6E9B}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c6c03bc4-bf8d-4977-a83e-3b02ad50fcf0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="c4ddd06f-7f70-4b19-827a-3880af42de1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c6c03bc4-bf8d-4977-a83e-3b02ad50fcf0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72D3516C-3641-4641-BA2C-A1A58946786B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B323D181-D514-4677-BF89-E5EB1B61D499}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9BB69A4-B3BB-48B1-84A3-0F56105D5954}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -6241,6 +5978,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6233C8F-4299-4827-B523-D2BAD8A5246B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
